--- a/raw data/API_documents/40_API_documentations/data/filter_labeled_API/SnapAndriod.xlsx
+++ b/raw data/API_documents/40_API_documentations/data/filter_labeled_API/SnapAndriod.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>class_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>LoginKit.AuthTokenManager</t>
   </si>
   <si>
-    <t>BitmojiKit.BitmojiFragment.Builder</t>
-  </si>
-  <si>
     <t>Use this class to create new media files.</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>The module that manages the user’s auth token credentials.</t>
   </si>
   <si>
-    <t>A builder class used to create an instance of BitmojiFragment with custom configuration.</t>
-  </si>
-  <si>
     <t>getSnapPhotoFromFile(java.io.File file)</t>
   </si>
   <si>
@@ -85,12 +79,6 @@
     <t>getAccessToken();</t>
   </si>
   <si>
-    <t>refreshAccessToken(RefreshAccessTokenResult callback);</t>
-  </si>
-  <si>
-    <t>withTheme(@StyleRes int theme)</t>
-  </si>
-  <si>
     <t>Factory method to create a SnapPhotoFile instance given a photo file</t>
   </si>
   <si>
@@ -106,12 +94,6 @@
     <t>Getter method for local access token. Note: if this method returns null, the access token may need to be refreshed by using refreshAccessToken.</t>
   </si>
   <si>
-    <t>Asynchronous method for refreshing and obtaining an access token for the current user.</t>
-  </si>
-  <si>
-    <t>Method to set the theme of the sticker picker. See (Bitmoji Kit docs)[/docs/bitmoji-kit/#theme-1] for more details.</t>
-  </si>
-  <si>
     <t>SnapPhotoFile</t>
   </si>
   <si>
@@ -127,12 +109,6 @@
     <t>String</t>
   </si>
   <si>
-    <t>Void</t>
-  </si>
-  <si>
-    <t>Builder</t>
-  </si>
-  <si>
     <t>Factory method to create a snap photo file instance given a photo file</t>
   </si>
   <si>
@@ -155,9 +131,6 @@
   </si>
   <si>
     <t>{'refresh access', 'local access', 'token', 'the access'}</t>
-  </si>
-  <si>
-    <t>{'more details'}</t>
   </si>
 </sst>
 </file>
@@ -515,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,25 +525,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -578,25 +551,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -604,25 +577,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -630,25 +603,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -656,77 +629,25 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
